--- a/ijigsp-2019-result.xlsx
+++ b/ijigsp-2019-result.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="SVC" sheetId="1" r:id="rId1"/>
+    <sheet name="SVC" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>N Points</t>
   </si>
@@ -40,9 +34,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000000000000000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,12 +63,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,285 +345,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1000</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>2000</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.92508485877075997</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.88492835662480096</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.96070735846769295</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.93983674946750995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.49563280397623899</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.23002789871332799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.95139107770638798</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.92641276570364095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.95823736210449695</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.93680899164943199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.95650381864468403</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.93412887828162205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.93985028488301603</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.90897875697094199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.946193477997333</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.91767978856586396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.73788337980361196</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.60333701768949499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.94450842526366796</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.915893431327514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.94561461995393303</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.91775441362494703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.95382167535458795</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.93010229827056201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.90866468662868205</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.86167756741250701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.68669535701297102</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.52200228415012495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.96520790398836198</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.94728649423044198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.95440356406837101</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.93100586071851099</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.95944963025821295</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.93813946822134697</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.71966298945326701</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.57568223415918496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.97425748575584903</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.960994471078782</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75177597284519304</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.62412460647446999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2">
-        <f>AVERAGE(B3:B22)</f>
-        <v>0.88177733664686586</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C3:C22)</f>
-        <v>0.82034011666675133</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ijigsp-2019-result.xlsx
+++ b/ijigsp-2019-result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>N Points</t>
   </si>
@@ -29,11 +29,26 @@
   <si>
     <t>Acc.</t>
   </si>
+  <si>
+    <t>RBF</t>
+  </si>
+  <si>
+    <t>Polynomial</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Sigmoid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,8 +78,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,126 +364,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B3" s="2">
+        <v>0.89631652321493505</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.84232083793748802</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.89906715965571504</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.846494513911215</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.77205858285852802</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.65380315705821901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B4" s="2">
+        <v>0.89635864953327604</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.84242144274198605</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.89753636804461101</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.84419904856779904</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.90958661655958295</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.862609734259427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B5" s="2">
+        <v>0.89039898775609105</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.83338852352388004</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.89461480179415598</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.83977839694296996</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.91497620923748302</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.87076267352283798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6" s="2">
+        <v>0.88584025336404404</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.82647733044037797</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.889461904473269</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.831965191329891</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.91233846526851703</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.86674147552883096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B7" s="2">
+        <v>0.88625803127651803</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.82711881692453204</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.89010516426233399</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.832955256922842</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.91404791489877502</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.86933644876400196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>600</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B8" s="2">
+        <v>0.88396911746878404</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.82365306513866698</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.88687977330585499</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.82806750875191504</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.9147105709783</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.87033590784991499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B9" s="2">
+        <v>0.88190689780579401</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.82052768117359498</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.88472708813189405</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.82480763748877595</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.91556279549036201</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.87162198777295397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>800</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B10" s="2">
+        <v>0.88153382228148802</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.81996445351159397</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.88457025093950703</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.82457116122944196</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.91655018790156395</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.87311723207183101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>900</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B11" s="2">
+        <v>0.87978103406473496</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.81730816818487095</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.88280776457752397</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.82189932631088503</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.91475739483573704</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.870392557684048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B12" s="2">
+        <v>0.87859725421263102</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.81551587600403697</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.88177733664686597</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.820340116666751</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.91464510849799896</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.87022153471309704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>1100</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B13" s="2">
+        <v>0.87723739241120102</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.81345353027540401</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.881144835737665</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.81938000330439897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>1200</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B14" s="2">
+        <v>0.87692129349011905</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.81297740634354299</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.880499757546369</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.81840470294132495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>1300</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B15" s="2">
+        <v>0.87613468299187702</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.81178376859493195</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.87959949690871597</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.81704006986935795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>1400</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B16" s="2">
+        <v>0.87612968238574296</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.81177638826361198</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.879002757910049</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.81613533052238096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>1500</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B17" s="2">
+        <v>0.87515395805552099</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.81029642355185405</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.87803203418596198</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.81466402471968902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>1600</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B18" s="2">
+        <v>0.87481528064007696</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.80978602139974798</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.87745302460904295</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.81378932131263704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>1700</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B19" s="2">
+        <v>0.87465950418232496</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.80955128432802204</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.87739665413989498</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.813704534437796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>1800</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B20" s="2">
+        <v>0.87464935143653699</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.80953601432296696</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.87712813674384704</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.81329750885319296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>1900</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B21" s="2">
+        <v>0.87449706024972695</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.80930562820600205</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.87694205358225197</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.813016825198836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>2000</v>
       </c>
+      <c r="B22" s="2">
+        <v>0.87447069341738304</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.80926457818584796</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.87669899381743199</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.812647431204921</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ijigsp-2019-result.xlsx
+++ b/ijigsp-2019-result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>N Points</t>
   </si>
@@ -33,13 +33,16 @@
     <t>RBF</t>
   </si>
   <si>
-    <t>Polynomial</t>
-  </si>
-  <si>
     <t>Linear</t>
   </si>
   <si>
     <t>Sigmoid</t>
+  </si>
+  <si>
+    <t>Polynomial (degree=default)</t>
+  </si>
+  <si>
+    <t>Polynomial (degree=4)</t>
   </si>
 </sst>
 </file>
@@ -47,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -80,15 +83,23 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -364,36 +375,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -421,414 +438,722 @@
       <c r="I2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.89631652321493505</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.84232083793748802</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.89906715965571504</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.846494513911215</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.77205858285852802</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.65380315705821901</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>0.83180370347920896</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.74458102929033199</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.897583343435568</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.844211863835303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.89635864953327604</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.84242144274198605</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.89753636804461101</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.84419904856779904</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.90958661655958295</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0.862609734259427</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>0.82920505515820098</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.74062199945208196</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.90131091647472406</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.84990199075612405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>300</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.89039898775609105</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.83338852352388004</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.89461480179415598</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.83977839694296996</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.91497620923748302</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0.87076267352283798</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>0.89452221481391603</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.83979029324961296</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.89694159898169401</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.84327601559626397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>400</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.88584025336404404</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.82647733044037797</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.889461904473269</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.831965191329891</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.91233846526851703</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.86674147552883096</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>0.89994469026548596</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.84801342997135498</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.89266971754152002</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.83679717386874897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.88625803127651803</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.82711881692453204</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.89010516426233399</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.832955256922842</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.91404791489877502</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>0.86933644876400196</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>0.90797111771123695</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.86019109020094597</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.89296642017214201</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.83725542484298998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>600</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.88396911746878404</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.82365306513866698</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.88687977330585499</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.82806750875191504</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.9147105709783</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>0.87033590784991499</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>0.91122287550005998</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.86512027895907295</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.89185416414110796</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.835578285169018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>700</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0.88190689780579401</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.82052768117359498</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.88472708813189405</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.82480763748877595</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.91556279549036201</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>0.87162198777295397</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>0.91187628803491305</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.86610393603639302</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.88966420172142002</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.83226028094684501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>800</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.88153382228148802</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.81996445351159397</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.88457025093950703</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.82457116122944196</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.91655018790156395</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>0.87311723207183101</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>0.91656473511940795</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.87321581771074397</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.88882046308643403</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.83098457420240801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>900</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.87978103406473496</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.81730816818487095</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.88280776457752397</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0.82189932631088503</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.91475739483573704</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>0.870392557684048</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>0.91738725906170404</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.87445796925641295</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.88695887380288496</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.82816403137714001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1000</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.87859725421263102</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.81551587600403697</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.88177733664686597</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0.820340116666751</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.91464510849799896</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>0.87022153471309704</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>0.91977860952842705</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.87808342627719904</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.88597163292520298</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.82667120581326903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1100</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.87723739241120102</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>0.81345353027540401</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.881144835737665</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>0.81938000330439897</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>0.91373424051400098</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.86883519339286497</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.91971996605649098</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.87798806147731001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.88449827251788005</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.82443628804410296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1200</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0.87692129349011905</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0.81297740634354299</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.880499757546369</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.81840470294132495</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>0.91378409504182301</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.86890975646773405</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.92115453388289403</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.88016377455953698</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.88473602860952805</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.82480097746988201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1300</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.87613468299187702</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>0.81178376859493195</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>0.87959949690871597</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>0.81704006986935795</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>0.91350451569887203</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.86848276181666895</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.921430779488422</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.88057854114106304</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.88409883016123103</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.82383600888518005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1400</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>0.87612968238574296</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>0.81177638826361198</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>0.879002757910049</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>0.81613533052238096</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>0.91304642987028695</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.86778624908508195</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.92158261607467495</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.88080515344562105</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.88376879015638199</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.82333604577106601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1500</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>0.87515395805552099</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>0.81029642355185405</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>0.87803203418596198</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>0.81466402471968902</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>0.91298930173354298</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.86770027828260499</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.92259910292156599</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.8823456566176</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.88260925566735304</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.82157862907369295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1600</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>0.87481528064007696</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>0.80978602139974798</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.87745302460904295</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>0.81378932131263704</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>0.91295944963025799</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.86765687852913298</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.92324660564916905</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.88332628606673602</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.88128364044126495</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.81957189042978196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1700</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>0.87465950418232496</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>0.80955128432802204</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>0.87739665413989498</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0.813704534437796</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>0.91294884228391304</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.867641673464702</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.92456373499818101</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.88532551164615803</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.88105315795854</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.81922438962454902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1800</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>0.87464935143653699</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>0.80953601432296696</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>0.87712813674384704</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>0.81329750885319296</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>0.91246681415929198</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.86690903679598397</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.92446614741180699</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.88517419871081005</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.88058431325009001</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.81851386897009903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1900</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>0.87449706024972695</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>0.80930562820600205</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>0.87694205358225197</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>0.813016825198836</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>0.91185901321372198</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.86598624686062897</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.92513062189356299</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.88618200150628701</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.88016198933204004</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.81787412912896795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2000</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>0.87447069341738304</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>0.80926457818584796</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>0.87669899381743199</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>0.812647431204921</v>
       </c>
+      <c r="F22" s="1">
+        <v>0.91115180627954895</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.86491141610470801</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.92445402473027005</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.88515292863315098</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.87985164868468801</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.817402057732183</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ijigsp-2019-result.xlsx
+++ b/ijigsp-2019-result.xlsx
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,6 +1145,48 @@
         <v>0.817402057732183</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <f>MAX(B3:B22)</f>
+        <v>0.89635864953327604</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23:K23" si="0">MAX(C3:C22)</f>
+        <v>0.84242144274198605</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89906715965571504</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.846494513911215</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91655018790156395</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87311723207183101</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92513062189356299</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88618200150628701</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90131091647472406</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84990199075612405</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D1:E1"/>
